--- a/horarios_optimizados-535-push_gap_0.80.xlsx
+++ b/horarios_optimizados-535-push_gap_0.80.xlsx
@@ -604,9 +604,21 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -622,15 +634,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H5" s="4" t="inlineStr"/>
       <c r="I5" s="4" t="inlineStr"/>
       <c r="J5" s="4" t="inlineStr"/>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -656,26 +672,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
       <c r="V5" s="4" t="inlineStr"/>
       <c r="W5" s="4" t="inlineStr"/>
     </row>
@@ -695,18 +695,66 @@
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -714,100 +762,28 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
+      <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="inlineStr"/>
       <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
+      <c r="W7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -815,31 +791,11 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -850,41 +806,65 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr"/>
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" s="4" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -895,18 +875,30 @@
       <c r="B9" s="4" t="inlineStr"/>
       <c r="C9" s="4" t="inlineStr"/>
       <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="4" t="inlineStr"/>
       <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L9" s="4" t="inlineStr"/>
       <c r="M9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -971,25 +963,29 @@
       </c>
       <c r="B10" s="4" t="inlineStr"/>
       <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr"/>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1025,7 +1021,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1088,13 +1088,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H11" s="4" t="inlineStr"/>
       <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1241,23 +1241,35 @@
       </c>
       <c r="B15" s="4" t="inlineStr"/>
       <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I15" s="4" t="inlineStr"/>
       <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
       <c r="M15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1320,10 +1332,26 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1339,15 +1367,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J16" s="4" t="inlineStr"/>
-      <c r="K16" s="4" t="inlineStr"/>
-      <c r="L16" s="4" t="inlineStr"/>
-      <c r="M16" s="4" t="inlineStr"/>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1358,46 +1398,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1425,23 +1433,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr"/>
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
       <c r="K17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1492,11 +1496,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U17" s="4" t="inlineStr"/>
       <c r="V17" s="4" t="inlineStr"/>
       <c r="W17" s="4" t="inlineStr"/>
     </row>
@@ -1541,26 +1541,10 @@
       <c r="E19" s="4" t="inlineStr"/>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
       <c r="L19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1628,34 +1612,54 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1701,11 +1705,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1874,21 +1874,9 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
       <c r="E25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1914,7 +1902,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr"/>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
@@ -1958,8 +1950,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2003,12 +2003,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N26" s="4" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O26" s="4" t="inlineStr"/>
       <c r="P26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2039,8 +2039,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2079,40 +2087,28 @@
       </c>
       <c r="B28" s="4" t="inlineStr"/>
       <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
       <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2133,11 +2129,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R28" s="4" t="inlineStr"/>
       <c r="S28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2153,8 +2145,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -2162,47 +2162,15 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B29" s="4" t="inlineStr"/>
+      <c r="C29" s="4" t="inlineStr"/>
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr"/>
       <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G29" s="4" t="inlineStr"/>
+      <c r="H29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr"/>
       <c r="K29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2233,11 +2201,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q29" s="4" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2253,9 +2217,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr"/>
-      <c r="W29" s="4" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2309,11 +2285,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P30" s="4" t="inlineStr"/>
       <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2344,7 +2316,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W30" s="4" t="inlineStr"/>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2352,19 +2328,43 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J31" s="4" t="inlineStr"/>
       <c r="K31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2550,9 +2550,21 @@
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr"/>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr"/>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2573,7 +2585,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr"/>
+      <c r="R35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S35" s="4" t="inlineStr"/>
       <c r="T35" s="4" t="inlineStr"/>
       <c r="U35" s="4" t="inlineStr"/>
@@ -2592,82 +2608,22 @@
       <c r="E36" s="4" t="inlineStr"/>
       <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H36" s="4" t="inlineStr"/>
+      <c r="I36" s="4" t="inlineStr"/>
+      <c r="J36" s="4" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
+      <c r="L36" s="4" t="inlineStr"/>
       <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N36" s="4" t="inlineStr"/>
+      <c r="O36" s="4" t="inlineStr"/>
+      <c r="P36" s="4" t="inlineStr"/>
+      <c r="Q36" s="4" t="inlineStr"/>
+      <c r="R36" s="4" t="inlineStr"/>
+      <c r="S36" s="4" t="inlineStr"/>
+      <c r="T36" s="4" t="inlineStr"/>
+      <c r="U36" s="4" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
+      <c r="W36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2675,22 +2631,82 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr"/>
-      <c r="C37" s="4" t="inlineStr"/>
-      <c r="D37" s="4" t="inlineStr"/>
-      <c r="E37" s="4" t="inlineStr"/>
-      <c r="F37" s="4" t="inlineStr"/>
-      <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J37" s="4" t="inlineStr"/>
-      <c r="K37" s="4" t="inlineStr"/>
-      <c r="L37" s="4" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr"/>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R37" s="4" t="inlineStr"/>
       <c r="S37" s="4" t="inlineStr"/>
       <c r="T37" s="4" t="inlineStr"/>
@@ -2729,30 +2745,34 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr"/>
       <c r="J38" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="4" t="inlineStr"/>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr"/>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2788,16 +2808,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V38" s="4" t="inlineStr"/>
+      <c r="W38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2813,16 +2825,8 @@
       <c r="G39" s="4" t="inlineStr"/>
       <c r="H39" s="4" t="inlineStr"/>
       <c r="I39" s="4" t="inlineStr"/>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
       <c r="L39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2891,35 +2895,35 @@
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr"/>
-      <c r="C40" s="4" t="inlineStr"/>
-      <c r="D40" s="4" t="inlineStr"/>
-      <c r="E40" s="4" t="inlineStr"/>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
+      <c r="I40" s="4" t="inlineStr"/>
+      <c r="J40" s="4" t="inlineStr"/>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2970,16 +2974,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V40" s="4" t="inlineStr"/>
+      <c r="W40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2991,16 +2987,8 @@
       <c r="C41" s="4" t="inlineStr"/>
       <c r="D41" s="4" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3016,15 +3004,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr"/>
-      <c r="O41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O41" s="4" t="inlineStr"/>
       <c r="P41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3154,66 +3154,18 @@
       <c r="I45" s="4" t="inlineStr"/>
       <c r="J45" s="4" t="inlineStr"/>
       <c r="K45" s="4" t="inlineStr"/>
-      <c r="L45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L45" s="4" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr"/>
+      <c r="P45" s="4" t="inlineStr"/>
+      <c r="Q45" s="4" t="inlineStr"/>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr"/>
+      <c r="T45" s="4" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr"/>
+      <c r="W45" s="4" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -3223,22 +3175,78 @@
       </c>
       <c r="B46" s="4" t="inlineStr"/>
       <c r="C46" s="4" t="inlineStr"/>
-      <c r="D46" s="4" t="inlineStr"/>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I46" s="4" t="inlineStr"/>
       <c r="J46" s="4" t="inlineStr"/>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr"/>
-      <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr"/>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T46" s="4" t="inlineStr"/>
       <c r="U46" s="4" t="inlineStr"/>
       <c r="V46" s="4" t="inlineStr"/>
@@ -3254,16 +3262,8 @@
       <c r="C47" s="4" t="inlineStr"/>
       <c r="D47" s="4" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3274,7 +3274,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J47" s="4" t="inlineStr"/>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K47" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3350,21 +3354,29 @@
       <c r="B48" s="4" t="inlineStr"/>
       <c r="C48" s="4" t="inlineStr"/>
       <c r="D48" s="4" t="inlineStr"/>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr"/>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
       <c r="L48" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3432,12 +3444,36 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr"/>
-      <c r="C49" s="4" t="inlineStr"/>
-      <c r="D49" s="4" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr"/>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H49" s="4" t="inlineStr"/>
       <c r="I49" s="5" t="inlineStr">
         <is>
@@ -3479,41 +3515,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q49" s="4" t="inlineStr"/>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="4" t="inlineStr"/>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr"/>
+      <c r="W49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -3521,45 +3529,37 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B50" s="4" t="inlineStr"/>
+      <c r="C50" s="4" t="inlineStr"/>
+      <c r="D50" s="4" t="inlineStr"/>
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr"/>
-      <c r="K50" s="4" t="inlineStr"/>
-      <c r="L50" s="4" t="inlineStr"/>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M50" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3785,67 +3785,19 @@
       <c r="E55" s="4" t="inlineStr"/>
       <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="inlineStr"/>
-      <c r="H55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
+      <c r="K55" s="4" t="inlineStr"/>
       <c r="L55" s="4" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M55" s="4" t="inlineStr"/>
+      <c r="N55" s="4" t="inlineStr"/>
+      <c r="O55" s="4" t="inlineStr"/>
+      <c r="P55" s="4" t="inlineStr"/>
+      <c r="Q55" s="4" t="inlineStr"/>
+      <c r="R55" s="4" t="inlineStr"/>
+      <c r="S55" s="4" t="inlineStr"/>
+      <c r="T55" s="4" t="inlineStr"/>
       <c r="U55" s="4" t="inlineStr"/>
       <c r="V55" s="4" t="inlineStr"/>
       <c r="W55" s="4" t="inlineStr"/>
@@ -3896,11 +3848,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J56" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J56" s="4" t="inlineStr"/>
       <c r="K56" s="4" t="inlineStr"/>
       <c r="L56" s="4" t="inlineStr"/>
       <c r="M56" s="4" t="inlineStr"/>
@@ -3924,12 +3872,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R56" s="4" t="inlineStr"/>
-      <c r="S56" s="4" t="inlineStr"/>
-      <c r="T56" s="4" t="inlineStr"/>
-      <c r="U56" s="4" t="inlineStr"/>
-      <c r="V56" s="4" t="inlineStr"/>
-      <c r="W56" s="4" t="inlineStr"/>
+      <c r="R56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -3980,11 +3952,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q57" s="4" t="inlineStr"/>
       <c r="R57" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4022,23 +3990,87 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr"/>
-      <c r="C58" s="4" t="inlineStr"/>
-      <c r="D58" s="4" t="inlineStr"/>
-      <c r="E58" s="4" t="inlineStr"/>
-      <c r="F58" s="4" t="inlineStr"/>
-      <c r="G58" s="4" t="inlineStr"/>
-      <c r="H58" s="4" t="inlineStr"/>
-      <c r="I58" s="4" t="inlineStr"/>
-      <c r="J58" s="4" t="inlineStr"/>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K58" s="4" t="inlineStr"/>
-      <c r="L58" s="4" t="inlineStr"/>
-      <c r="M58" s="4" t="inlineStr"/>
-      <c r="N58" s="4" t="inlineStr"/>
-      <c r="O58" s="4" t="inlineStr"/>
-      <c r="P58" s="4" t="inlineStr"/>
-      <c r="Q58" s="4" t="inlineStr"/>
-      <c r="R58" s="4" t="inlineStr"/>
+      <c r="L58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S58" s="4" t="inlineStr"/>
       <c r="T58" s="4" t="inlineStr"/>
       <c r="U58" s="4" t="inlineStr"/>
@@ -4071,11 +4103,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4096,10 +4124,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K59" s="4" t="inlineStr"/>
-      <c r="L59" s="4" t="inlineStr"/>
-      <c r="M59" s="4" t="inlineStr"/>
-      <c r="N59" s="4" t="inlineStr"/>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O59" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4115,11 +4159,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R59" s="4" t="inlineStr"/>
       <c r="S59" s="4" t="inlineStr"/>
       <c r="T59" s="4" t="inlineStr"/>
       <c r="U59" s="4" t="inlineStr"/>
@@ -4132,39 +4172,27 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="4" t="inlineStr"/>
-      <c r="J60" s="4" t="inlineStr"/>
+      <c r="B60" s="4" t="inlineStr"/>
+      <c r="C60" s="4" t="inlineStr"/>
+      <c r="D60" s="4" t="inlineStr"/>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
+      <c r="G60" s="4" t="inlineStr"/>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K60" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4175,11 +4203,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M60" s="4" t="inlineStr"/>
       <c r="N60" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4233,26 +4257,10 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B61" s="4" t="inlineStr"/>
+      <c r="C61" s="4" t="inlineStr"/>
+      <c r="D61" s="4" t="inlineStr"/>
+      <c r="E61" s="4" t="inlineStr"/>
       <c r="F61" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4263,33 +4271,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H61" s="4" t="inlineStr"/>
-      <c r="I61" s="4" t="inlineStr"/>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J61" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K61" s="4" t="inlineStr"/>
+      <c r="L61" s="4" t="inlineStr"/>
+      <c r="M61" s="4" t="inlineStr"/>
+      <c r="N61" s="4" t="inlineStr"/>
       <c r="O61" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4421,7 +4421,11 @@
       <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="inlineStr"/>
       <c r="H65" s="4" t="inlineStr"/>
-      <c r="I65" s="4" t="inlineStr"/>
+      <c r="I65" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J65" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4442,12 +4446,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N65" s="4" t="inlineStr"/>
-      <c r="O65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N65" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O65" s="4" t="inlineStr"/>
       <c r="P65" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4515,15 +4519,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr"/>
-      <c r="G66" s="4" t="inlineStr"/>
-      <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="4" t="inlineStr"/>
-      <c r="J66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J66" s="4" t="inlineStr"/>
       <c r="K66" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4549,46 +4565,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P66" s="4" t="inlineStr"/>
+      <c r="Q66" s="4" t="inlineStr"/>
+      <c r="R66" s="4" t="inlineStr"/>
+      <c r="S66" s="4" t="inlineStr"/>
+      <c r="T66" s="4" t="inlineStr"/>
+      <c r="U66" s="4" t="inlineStr"/>
+      <c r="V66" s="4" t="inlineStr"/>
+      <c r="W66" s="4" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -4597,27 +4581,95 @@
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr"/>
-      <c r="C67" s="4" t="inlineStr"/>
-      <c r="D67" s="4" t="inlineStr"/>
-      <c r="E67" s="4" t="inlineStr"/>
-      <c r="F67" s="4" t="inlineStr"/>
-      <c r="G67" s="4" t="inlineStr"/>
-      <c r="H67" s="4" t="inlineStr"/>
-      <c r="I67" s="4" t="inlineStr"/>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J67" s="4" t="inlineStr"/>
       <c r="K67" s="4" t="inlineStr"/>
       <c r="L67" s="4" t="inlineStr"/>
       <c r="M67" s="4" t="inlineStr"/>
-      <c r="N67" s="4" t="inlineStr"/>
-      <c r="O67" s="4" t="inlineStr"/>
-      <c r="P67" s="4" t="inlineStr"/>
-      <c r="Q67" s="4" t="inlineStr"/>
-      <c r="R67" s="4" t="inlineStr"/>
-      <c r="S67" s="4" t="inlineStr"/>
-      <c r="T67" s="4" t="inlineStr"/>
-      <c r="U67" s="4" t="inlineStr"/>
-      <c r="V67" s="4" t="inlineStr"/>
-      <c r="W67" s="4" t="inlineStr"/>
+      <c r="N67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -4633,76 +4685,20 @@
       <c r="G68" s="4" t="inlineStr"/>
       <c r="H68" s="4" t="inlineStr"/>
       <c r="I68" s="4" t="inlineStr"/>
-      <c r="J68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J68" s="4" t="inlineStr"/>
+      <c r="K68" s="4" t="inlineStr"/>
+      <c r="L68" s="4" t="inlineStr"/>
+      <c r="M68" s="4" t="inlineStr"/>
+      <c r="N68" s="4" t="inlineStr"/>
+      <c r="O68" s="4" t="inlineStr"/>
+      <c r="P68" s="4" t="inlineStr"/>
+      <c r="Q68" s="4" t="inlineStr"/>
+      <c r="R68" s="4" t="inlineStr"/>
+      <c r="S68" s="4" t="inlineStr"/>
+      <c r="T68" s="4" t="inlineStr"/>
+      <c r="U68" s="4" t="inlineStr"/>
+      <c r="V68" s="4" t="inlineStr"/>
+      <c r="W68" s="4" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -4711,36 +4707,12 @@
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr"/>
-      <c r="C69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C69" s="4" t="inlineStr"/>
+      <c r="D69" s="4" t="inlineStr"/>
+      <c r="E69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr"/>
+      <c r="G69" s="4" t="inlineStr"/>
+      <c r="H69" s="4" t="inlineStr"/>
       <c r="I69" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4751,9 +4723,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K69" s="4" t="inlineStr"/>
-      <c r="L69" s="4" t="inlineStr"/>
-      <c r="M69" s="4" t="inlineStr"/>
+      <c r="K69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N69" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4774,11 +4758,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R69" s="4" t="inlineStr"/>
       <c r="S69" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4811,13 +4791,41 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr"/>
-      <c r="C70" s="4" t="inlineStr"/>
-      <c r="D70" s="4" t="inlineStr"/>
-      <c r="E70" s="4" t="inlineStr"/>
-      <c r="F70" s="4" t="inlineStr"/>
-      <c r="G70" s="4" t="inlineStr"/>
-      <c r="H70" s="4" t="inlineStr"/>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I70" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4828,26 +4836,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K70" s="4" t="inlineStr"/>
+      <c r="L70" s="4" t="inlineStr"/>
+      <c r="M70" s="4" t="inlineStr"/>
+      <c r="N70" s="4" t="inlineStr"/>
       <c r="O70" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4878,9 +4870,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U70" s="4" t="inlineStr"/>
-      <c r="V70" s="4" t="inlineStr"/>
-      <c r="W70" s="4" t="inlineStr"/>
+      <c r="U70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -4894,16 +4898,8 @@
       <c r="E71" s="4" t="inlineStr"/>
       <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="inlineStr"/>
-      <c r="H71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H71" s="4" t="inlineStr"/>
+      <c r="I71" s="4" t="inlineStr"/>
       <c r="J71" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4929,7 +4925,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O71" s="4" t="inlineStr"/>
+      <c r="O71" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P71" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -5068,29 +5068,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -5111,18 +5111,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Descanso</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5142,29 +5144,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5185,29 +5175,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5228,20 +5218,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5261,17 +5261,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -5309,12 +5309,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5347,20 +5347,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5380,29 +5390,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -5428,24 +5438,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -5497,7 +5507,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -5508,7 +5518,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -5530,20 +5540,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5606,12 +5626,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5621,14 +5641,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
@@ -5654,21 +5674,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I17" t="n">
         <v>0.5</v>
@@ -5723,29 +5743,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -5766,26 +5786,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
         <v>0.5</v>
@@ -5812,17 +5832,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>7.5</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5842,20 +5872,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5885,19 +5925,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -5918,29 +5958,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5961,17 +5989,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -5997,24 +6037,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
@@ -6035,7 +6075,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -6046,7 +6086,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -6068,29 +6108,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -6111,17 +6151,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -6130,10 +6170,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
@@ -6154,20 +6194,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>Descanso</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>6</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6187,17 +6225,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -6218,30 +6268,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6261,20 +6301,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6294,20 +6344,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6327,30 +6387,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6403,29 +6453,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6451,7 +6489,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6461,14 +6499,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -6492,17 +6530,27 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6522,17 +6570,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
@@ -6558,24 +6618,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
@@ -6596,17 +6656,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6615,10 +6675,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I42" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
@@ -6639,17 +6699,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6658,10 +6718,10 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -6682,17 +6742,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -6701,7 +6761,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I44" t="n">
         <v>0.5</v>
@@ -6730,24 +6790,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
@@ -6768,17 +6828,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -6799,20 +6871,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>Descanso</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>7</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6832,17 +6902,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -6851,10 +6921,10 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -6875,20 +6945,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6908,30 +6988,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
